--- a/MCM算法列表.xlsx
+++ b/MCM算法列表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DCD76-52C5-48C7-AB91-137EF136D96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,13 +43,37 @@
   </si>
   <si>
     <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染病模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微分方程建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子群算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matlab版本1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python、matlab版本1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,17 +394,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
@@ -411,6 +436,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MCM算法列表.xlsx
+++ b/MCM算法列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DCD76-52C5-48C7-AB91-137EF136D96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA100CE-AC7C-49A1-9142-8E059342820A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,22 @@
   </si>
   <si>
     <t>python、matlab版本1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层次分析法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排队论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因素分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散建模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -458,6 +474,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MCM算法列表.xlsx
+++ b/MCM算法列表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA100CE-AC7C-49A1-9142-8E059342820A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,13 +82,29 @@
   </si>
   <si>
     <t>离散建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matlab有现成的代码可以直接训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,11 +425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -441,6 +456,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -494,6 +512,17 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
